--- a/sprawozdanie/Zeszyt1.xlsx
+++ b/sprawozdanie/Zeszyt1.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Numer testu</t>
-  </si>
-  <si>
-    <t>czas całk.</t>
-  </si>
-  <si>
-    <t>czas średni</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>A*</t>
   </si>
@@ -42,6 +33,48 @@
   </si>
   <si>
     <t>Tremaux</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>rozmiar NxN</t>
+  </si>
+  <si>
+    <t>artefaktu</t>
+  </si>
+  <si>
+    <t>1 artefakt</t>
+  </si>
+  <si>
+    <t>N=200</t>
+  </si>
+  <si>
+    <t>10 art.</t>
+  </si>
+  <si>
+    <t>N=20</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>artefaktyy</t>
+  </si>
+  <si>
+    <t>N = 20</t>
+  </si>
+  <si>
+    <t>N = 100</t>
+  </si>
+  <si>
+    <t>Czas[s]</t>
+  </si>
+  <si>
+    <t>10 artefaktów</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -66,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,22 +181,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -444,280 +489,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="7" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>200</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>300</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>500</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>800</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
